--- a/propositiontable.xlsx
+++ b/propositiontable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerard\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerard\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="41">
   <si>
     <t>Proposition</t>
   </si>
@@ -138,6 +138,15 @@
   </si>
   <si>
     <t>Resolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerard McDevitt </t>
+  </si>
+  <si>
+    <t>CSC 481 - Artificial Intelligence Project 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Test proposition matrix</t>
   </si>
 </sst>
 </file>
@@ -212,7 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -225,13 +234,17 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,88 +575,64 @@
     <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="5" t="s">
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>32</v>
@@ -657,10 +646,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>32</v>
@@ -674,16 +663,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
       <c r="C8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>36</v>
@@ -691,10 +680,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>32</v>
@@ -708,13 +697,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="C10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>32</v>
@@ -725,10 +714,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>33</v>
@@ -742,10 +731,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>32</v>
@@ -759,13 +748,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="C13" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>32</v>
@@ -776,10 +765,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>33</v>
@@ -793,16 +782,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="C15" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>36</v>
@@ -810,16 +799,16 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="C16" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>36</v>
@@ -827,16 +816,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="C17" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>36</v>
@@ -844,10 +833,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>33</v>
@@ -861,10 +850,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>33</v>
@@ -878,16 +867,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="C20" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>36</v>
@@ -895,10 +884,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>33</v>
@@ -912,10 +901,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>33</v>
@@ -929,16 +918,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>36</v>
@@ -946,27 +935,27 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>33</v>
@@ -975,38 +964,38 @@
         <v>33</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>37</v>
@@ -1014,16 +1003,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>37</v>
@@ -1031,10 +1020,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>33</v>
@@ -1048,10 +1037,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>33</v>
@@ -1060,56 +1049,110 @@
         <v>33</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>27</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>28</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>29</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>30</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
+      <c r="C35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A1:B1"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
